--- a/config/data/Scope.xlsx
+++ b/config/data/Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1190AF78-372B-4CBD-91CC-2D34445BB489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA914520-DA9F-45A1-99D0-89242908AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6450" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Options" sheetId="3" r:id="rId3"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
     <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="6" r:id="rId6"/>
+    <sheet name="Evaluation Warning" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>STT</t>
   </si>
@@ -297,7 +297,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +325,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -568,11 +569,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B3" sqref="B3"/>
+      <selection pane="topRight" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -629,9 +630,7 @@
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -654,42 +653,22 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -724,8 +703,35 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D4">
+  <conditionalFormatting sqref="D1:D5">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -745,7 +751,7 @@
           <x14:formula1>
             <xm:f>'Group-Turn'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>E2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -760,8 +766,8 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -824,13 +830,13 @@
         <v>205</v>
       </c>
       <c r="D2" s="10">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="E2" s="10">
         <v>205</v>
       </c>
       <c r="F2" s="10">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>23</v>
@@ -8719,7 +8725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08E525D-C5BD-4498-B782-C27DEFECDED0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E083A94B-7680-4C1D-B78E-2CA6D10C2C78}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/config/data/Scope.xlsx
+++ b/config/data/Scope.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA914520-DA9F-45A1-99D0-89242908AF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7832D-88E7-4D45-8273-B2AEA7C37E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6450" yWindow="3555" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -571,9 +571,9 @@
   </sheetPr>
   <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A4" sqref="A4"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -830,7 +830,7 @@
         <v>205</v>
       </c>
       <c r="D2" s="10">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E2" s="10">
         <v>205</v>

--- a/config/data/Scope.xlsx
+++ b/config/data/Scope.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tool_test_game\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F7832D-88E7-4D45-8273-B2AEA7C37E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4886187B-8CC7-47E6-9E95-36578FA954BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="3210" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2085" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Options" sheetId="3" r:id="rId3"/>
     <sheet name="Group-Turn" sheetId="4" r:id="rId4"/>
     <sheet name="Note" sheetId="5" r:id="rId5"/>
-    <sheet name="Evaluation Warning" sheetId="7" r:id="rId6"/>
+    <sheet name="Evaluation Warning" sheetId="14" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="49">
   <si>
     <t>STT</t>
   </si>
@@ -157,9 +157,6 @@
   </si>
   <si>
     <t>1</t>
-  </si>
-  <si>
-    <t>10</t>
   </si>
   <si>
     <t>Evaluation Only. Created with Aspose.Cells for Java.Copyright 2003 - 2021 Aspose Pty Ltd.</t>
@@ -297,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,7 +322,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,11 +565,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y5"/>
+  <dimension ref="A1:Y12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -625,7 +621,7 @@
         <v>43</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
@@ -654,8 +650,8 @@
       <c r="Y2" s="3"/>
     </row>
     <row r="3" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>47</v>
+      <c r="A3" t="s">
+        <v>46</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -672,10 +668,10 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
@@ -730,8 +726,197 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D5">
+  <conditionalFormatting sqref="D1:D12">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
@@ -766,8 +951,8 @@
   </sheetPr>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -827,16 +1012,16 @@
         <v>22</v>
       </c>
       <c r="C2" s="10">
-        <v>205</v>
+        <v>758</v>
       </c>
       <c r="D2" s="10">
-        <v>56</v>
+        <v>696</v>
       </c>
       <c r="E2" s="10">
-        <v>205</v>
+        <v>758</v>
       </c>
       <c r="F2" s="10">
-        <v>40</v>
+        <v>696</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>23</v>
@@ -7705,7 +7890,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -8725,7 +8910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E083A94B-7680-4C1D-B78E-2CA6D10C2C78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58A548A2-357B-4CFD-A203-79849AA68D61}">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8734,7 +8919,7 @@
   <sheetData>
     <row r="5" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
